--- a/20th Aug Batch/Class 25.03.2023 - Chi Square Test.xlsx
+++ b/20th Aug Batch/Class 25.03.2023 - Chi Square Test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\20th Aug Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2812AA87-E9E7-42AB-A8E4-1683BE4A914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0926B8B-DCC2-42B2-9D97-814BA0CD86AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,188 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+  <si>
+    <t>Chi Square Test</t>
+  </si>
+  <si>
+    <t>The entire factor</t>
+  </si>
+  <si>
+    <t>Level of Significance</t>
+  </si>
+  <si>
+    <t>Level of confidence</t>
+  </si>
+  <si>
+    <t>The data contains marital status and educational qualification</t>
+  </si>
+  <si>
+    <t>Null Hypothesis</t>
+  </si>
+  <si>
+    <t>Alternate Hypothesis</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Martial Status</t>
+  </si>
+  <si>
+    <t>Never Married</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Middle School</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>Bachelors</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Observed Value</t>
+  </si>
+  <si>
+    <t>Expected Value Calculation</t>
+  </si>
+  <si>
+    <t>(row_total*column total)/total sample size</t>
+  </si>
+  <si>
+    <t>Expected Values</t>
+  </si>
+  <si>
+    <t>Value category</t>
+  </si>
+  <si>
+    <t>Never Married Middle School</t>
+  </si>
+  <si>
+    <t>Never Married High School</t>
+  </si>
+  <si>
+    <t>Never Married Bachelors</t>
+  </si>
+  <si>
+    <t>Never Married Masters</t>
+  </si>
+  <si>
+    <t>Never Married Phd</t>
+  </si>
+  <si>
+    <t>Married Middle School</t>
+  </si>
+  <si>
+    <t>Married High School</t>
+  </si>
+  <si>
+    <t>Married Bachelors</t>
+  </si>
+  <si>
+    <t>Married Masters</t>
+  </si>
+  <si>
+    <t>Married Phd</t>
+  </si>
+  <si>
+    <t>Divorced Middle School</t>
+  </si>
+  <si>
+    <t>Divorced High School</t>
+  </si>
+  <si>
+    <t>Divorced Bachelors</t>
+  </si>
+  <si>
+    <t>Divorced Masters</t>
+  </si>
+  <si>
+    <t>Divorced Phd</t>
+  </si>
+  <si>
+    <t>Widowed Middle School</t>
+  </si>
+  <si>
+    <t>Widowed High School</t>
+  </si>
+  <si>
+    <t>Widowed Bachelors</t>
+  </si>
+  <si>
+    <t>Widowed Masters</t>
+  </si>
+  <si>
+    <t>Widowed Phd</t>
+  </si>
+  <si>
+    <t>Expected Value</t>
+  </si>
+  <si>
+    <t>O-E</t>
+  </si>
+  <si>
+    <t>(O-E)^2</t>
+  </si>
+  <si>
+    <t>(O-E)^2/E</t>
+  </si>
+  <si>
+    <t>Chi squared value</t>
+  </si>
+  <si>
+    <t>Degree Of Freedom</t>
+  </si>
+  <si>
+    <t>(coumns-1)*(rows-1)</t>
+  </si>
+  <si>
+    <t>Level Of Significance</t>
+  </si>
+  <si>
+    <t>Chi Square Table Value</t>
+  </si>
+  <si>
+    <t>Marital status and educational qualification is not co related - Rejected</t>
+  </si>
+  <si>
+    <t>Marital status and educational qualification is co related - Alternate Hypothesis</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -43,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -51,12 +229,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,14 +620,1003 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="B33" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="3">
+        <f>A3-B3</f>
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="20">
+        <f>(5-1)*(4-1)</f>
+        <v>12</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="3">
+        <f>A4-B4</f>
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3">
+        <f>B15</f>
+        <v>18</v>
+      </c>
+      <c r="K7" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="L7" s="3">
+        <f>J7-K7</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="M7" s="3">
+        <f>L7^2</f>
+        <v>39.690000000000012</v>
+      </c>
+      <c r="N7" s="17">
+        <f>M7/K7</f>
+        <v>3.3923076923076936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3">
+        <f>C15</f>
+        <v>36</v>
+      </c>
+      <c r="K8" s="3">
+        <v>27</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" ref="L8:L26" si="0">J8-K8</f>
+        <v>9</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ref="M8:M26" si="1">L8^2</f>
+        <v>81</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" ref="N8:N26" si="2">M8/K8</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3">
+        <f>D15</f>
+        <v>21</v>
+      </c>
+      <c r="K9" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>17.639999999999993</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="2"/>
+        <v>0.69999999999999973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3">
+        <f>E15</f>
+        <v>9</v>
+      </c>
+      <c r="K10" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.1999999999999993</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>51.839999999999989</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3">
+        <f>F15</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.9000000000000004</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>15.210000000000003</v>
+      </c>
+      <c r="N11" s="17">
+        <f t="shared" si="2"/>
+        <v>1.5363636363636366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3">
+        <f>B16</f>
+        <v>12</v>
+      </c>
+      <c r="K12" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" si="2"/>
+        <v>2.8846153846153846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3">
+        <f>C16</f>
+        <v>36</v>
+      </c>
+      <c r="K13" s="3">
+        <v>45</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="3">
+        <f>D16</f>
+        <v>45</v>
+      </c>
+      <c r="K14" s="3">
+        <v>42</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="2"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>6</v>
+      </c>
+      <c r="G15" s="11">
+        <f>SUM(B15:F15)</f>
+        <v>90</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3">
+        <f>E16</f>
+        <v>36</v>
+      </c>
+      <c r="K15" s="3">
+        <v>27</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="N15" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6">
+        <v>21</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" ref="G16:G18" si="3">SUM(B16:F16)</f>
+        <v>150</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3">
+        <f>F16</f>
+        <v>21</v>
+      </c>
+      <c r="K16" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" si="2"/>
+        <v>1.2272727272727273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.41</v>
+      </c>
+      <c r="N17" s="17">
+        <f t="shared" si="2"/>
+        <v>1.1307692307692307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="6">
+        <v>9</v>
+      </c>
+      <c r="K18" s="3">
+        <v>9</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <f>SUM(B15:B18)</f>
+        <v>39</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" ref="C19:F19" si="4">SUM(C15:C18)</f>
+        <v>90</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G19" s="11">
+        <f>SUM(G15:G18)</f>
+        <v>300</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="6">
+        <v>9</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3599999999999996</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="2"/>
+        <v>4.2857142857142809E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="I20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7600000000000016</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="2"/>
+        <v>1.0666666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="2"/>
+        <v>2.7272727272727244E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.20769230769230765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="6">
+        <v>9</v>
+      </c>
+      <c r="K23" s="3">
+        <v>9</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="I24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="6">
+        <v>9</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3599999999999996</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="2"/>
+        <v>4.2857142857142809E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6">
+        <f>(B19*G15)/G19</f>
+        <v>11.7</v>
+      </c>
+      <c r="C25" s="6">
+        <f>(G15*C19)/G19</f>
+        <v>27</v>
+      </c>
+      <c r="D25" s="6">
+        <f>(G15*D19)/G19</f>
+        <v>25.2</v>
+      </c>
+      <c r="E25" s="6">
+        <f>(G15*E19)/G19</f>
+        <v>16.2</v>
+      </c>
+      <c r="F25" s="6">
+        <f>(G15*F19)/G19</f>
+        <v>9.9</v>
+      </c>
+      <c r="G25" s="11">
+        <f>SUM(B25:F25)</f>
+        <v>90.000000000000014</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="6">
+        <v>6</v>
+      </c>
+      <c r="K25" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3599999999999996</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666582E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="6">
+        <f>($G$16*B19)/$G$19</f>
+        <v>19.5</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" ref="C26:F26" si="5">($G$16*C19)/$G$19</f>
+        <v>45</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" ref="G26:G28" si="6">SUM(B26:F26)</f>
+        <v>150</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="6">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="1"/>
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="N26" s="17">
+        <f t="shared" si="2"/>
+        <v>2.7272727272727244E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="6">
+        <f>($G$17*B19)/$G$19</f>
+        <v>3.9</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:F27" si="7">($G$17*C19)/$G$19</f>
+        <v>9</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="7"/>
+        <v>5.4</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="7"/>
+        <v>3.3</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="6"/>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="19">
+        <f>SUM(N7:N26)</f>
+        <v>23.566899766899773</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6">
+        <f>($G$18*B19)/$G$19</f>
+        <v>3.9</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" ref="C28:F28" si="8">($G$18*C19)/$G$19</f>
+        <v>9</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="8"/>
+        <v>8.4</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="8"/>
+        <v>5.4</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="8"/>
+        <v>3.3</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="6"/>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="1">
+        <v>21.026</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="11">
+        <f>SUM(B25:B28)</f>
+        <v>39</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29" si="9">SUM(C25:C28)</f>
+        <v>90</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" ref="D29" si="10">SUM(D25:D28)</f>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" ref="E29" si="11">SUM(E25:E28)</f>
+        <v>54</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" ref="F29" si="12">SUM(F25:F28)</f>
+        <v>33</v>
+      </c>
+      <c r="G29" s="11">
+        <f>SUM(G25:G28)</f>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>